--- a/biology/Zoologie/Carinotetraodon_travancoricus/Carinotetraodon_travancoricus.xlsx
+++ b/biology/Zoologie/Carinotetraodon_travancoricus/Carinotetraodon_travancoricus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carinotetraodon travancoricus, le Tetraodon nain[réf. nécessaire], est une espèce de poissons d'eau douce de la famille des Tetraodontidae communément appelé poisson-globe nain ou poisson-globe pygmée [1], endémique de la rivière Pampa, dans le sud-ouest de l'Inde[réf. nécessaire] 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carinotetraodon travancoricus, le Tetraodon nain[réf. nécessaire], est une espèce de poissons d'eau douce de la famille des Tetraodontidae communément appelé poisson-globe nain ou poisson-globe pygmée , endémique de la rivière Pampa, dans le sud-ouest de l'Inde[réf. nécessaire] 
 Ces poissons-globes nains habitent au fond de cours d'eau à forte végétation; ils sont prédateurs de petits animaux. Contrairement à la plupart des espèces de poissons-globes, on les trouve en grands groupes à l’état sauvage.  Ils se reproduisent pendant la majeure partie de l’année, les couples reproducteurs produisent 1 à 5 œufs tous les 1 à 4 jours. La raréfaction de leur habitat et la forte exploitation pour le aquariophiles menacent les populations sauvages de poissons-globes nains.  
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carinotetraodon travancoricus mesure au maximum 35 mm de longueur totale[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carinotetraodon travancoricus mesure au maximum 35 mm de longueur totale.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Carinotetraodon travancoricus (Hora &amp; Nair, 1941)[3].
-L'espèce a été initialement classée dans le genre Tetraodon sous le protonyme Tetraodon travancoricus Hora &amp; Nair, 1941[3].
-Carinotetraodon travancoricus a pour synonymes[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Carinotetraodon travancoricus (Hora &amp; Nair, 1941).
+L'espèce a été initialement classée dans le genre Tetraodon sous le protonyme Tetraodon travancoricus Hora &amp; Nair, 1941.
+Carinotetraodon travancoricus a pour synonymes :
 Monotreta travancoricus (Hora &amp; Nair, 1941)
 Tetraodon travancoricus Hora &amp; Nair, 1941</t>
         </is>
@@ -578,6 +594,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
